--- a/programas/Projects/6_regresionLineal/carteraRegre.xlsx
+++ b/programas/Projects/6_regresionLineal/carteraRegre.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,16 @@
           <t>stoploss</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>num acciones</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>vendidas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -489,6 +499,8 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,6 +526,8 @@
       <c r="G3" t="n">
         <v>7.890730888404607</v>
       </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
       <c r="G4" t="n">
         <v>11.18888628418327</v>
       </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,6 +580,8 @@
       <c r="G5" t="n">
         <v>15.67453380854692</v>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -589,6 +607,8 @@
       <c r="G6" t="n">
         <v>15.94604298949965</v>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -614,6 +634,8 @@
       <c r="G7" t="n">
         <v>15.60562858006185</v>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -639,6 +661,859 @@
       <c r="G8" t="n">
         <v>15.67453380854692</v>
       </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CMS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44808.45181574074</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67.13999938964844</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.785873993916738</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.408763241089059</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cms</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.13999938964844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.785873993916738</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.408763615413879</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44818.45142966435</v>
+      </c>
+      <c r="E11" t="n">
+        <v>137.7400054931641</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.525299979741874</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.481861846493776</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44818.45142966435</v>
+      </c>
+      <c r="E12" t="n">
+        <v>468.9299926757812</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31.29595304096165</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21.1582382200191</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44818.45142966435</v>
+      </c>
+      <c r="E13" t="n">
+        <v>347.8900146484375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22.95779267354226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17.01469779373598</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CPB</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44818.45142966435</v>
+      </c>
+      <c r="E14" t="n">
+        <v>47.27999877929688</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.010732602258422</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.424963527030984</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44819.4514259375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>458.8500061035156</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.84409409872853</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20.81432653485675</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hum</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="E16" t="n">
+        <v>458.8500061035156</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24.84409409872853</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20.81432733019881</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="E17" t="n">
+        <v>105.1600036621094</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22.30238073262738</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.916013381188929</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44830.45043134259</v>
+      </c>
+      <c r="E18" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14.03591163826947</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.956114214632505</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44830.45043134259</v>
+      </c>
+      <c r="E19" t="n">
+        <v>161.7799987792969</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.832287726090783</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.907691173622084</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E20" t="n">
+        <v>74.98999786376953</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.080046015217093</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.002695381475101</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E21" t="n">
+        <v>128.7599945068359</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.82593245386479</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.18193767663761</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E22" t="n">
+        <v>58.72999954223633</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.30935645376618</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.509789756242442</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44830.45043134259</v>
+      </c>
+      <c r="E23" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.51394471134972</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.654628836142684</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CTVA</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44830.45043134259</v>
+      </c>
+      <c r="E24" t="n">
+        <v>57.91999816894531</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.211541819165099</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.465532223898705</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44830.45043134259</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100.5899963378906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.874447724998902</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.70027181721481</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E26" t="n">
+        <v>277.7699890136719</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13.2449345466959</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12.07727341297225</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E27" t="n">
+        <v>81.65000152587891</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.13656123693265</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.252983914853373</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E28" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11.51394471134972</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.65462789837949</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cop</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100.5899963378906</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.874447724998902</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.700272505999029</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ANA.MC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44830.45043134259</v>
+      </c>
+      <c r="E30" t="n">
+        <v>182.8000030517578</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.91245468676391</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.59983570086003</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44831.54730512731</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.16999816894531</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.479656281207667</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.223260593653912</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CNP</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44833.4515146875</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30.14999961853027</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.146750574064015</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.669686875359139</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44831.54730512731</v>
+      </c>
+      <c r="E33" t="n">
+        <v>90.36000061035156</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16.61198156155535</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10.21821969607494</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AJG</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44831.54730512731</v>
+      </c>
+      <c r="E34" t="n">
+        <v>169.4600067138672</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.548738606515229</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.697920250595873</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ajg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169.4600067138672</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.548738606515229</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.697920792168992</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnp</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30.51000022888184</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.824182626637977</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.70585009000171</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NLSN</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="E37" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3436671294399218</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2031405912842432</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44836.55011158565</v>
+      </c>
+      <c r="E38" t="n">
+        <v>69.66000366210938</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5.033496194197298</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.147485139828119</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="E39" t="n">
+        <v>69.66000366210938</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.033496194197298</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.14748296432158</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/programas/Projects/6_regresionLineal/carteraRegre.xlsx
+++ b/programas/Projects/6_regresionLineal/carteraRegre.xlsx
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>44818.45142966435</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>44827</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>44830.45043134259</v>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>44827</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>44836.55011158565</v>
